--- a/Componentes HSB y Baliza/Listado de componentes Baliza y HSB.xlsx
+++ b/Componentes HSB y Baliza/Listado de componentes Baliza y HSB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\GitHub\Hospital-smart-bracelet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\GitHub\Hospital-smart-bracelet\Componentes HSB y Baliza\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Componentes HSB</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Imagén</t>
+  </si>
+  <si>
+    <t>Precio Unidad Costo por Manilla</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,12 +318,6 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,11 +365,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1537,7 +1541,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,48 +1550,52 @@
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1595,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="30"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>5</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
       <c r="G3" s="5">
@@ -1610,6 +1618,9 @@
         <f>G3*F3</f>
         <v>0</v>
       </c>
+      <c r="I3" s="5">
+        <v>24000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1618,16 +1629,16 @@
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>2</v>
       </c>
       <c r="G4" s="5">
@@ -1637,24 +1648,27 @@
         <f t="shared" ref="H4:H25" si="0">G4*F4</f>
         <v>55000</v>
       </c>
+      <c r="I4" s="5">
+        <v>27500</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="5">
@@ -1664,24 +1678,27 @@
         <f t="shared" si="0"/>
         <v>24514</v>
       </c>
+      <c r="I5" s="5">
+        <v>12257</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
       <c r="G6" s="5">
@@ -1691,24 +1708,27 @@
         <f t="shared" si="0"/>
         <v>249900</v>
       </c>
+      <c r="I6" s="5">
+        <v>83300</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
       <c r="G7" s="5">
@@ -1718,6 +1738,9 @@
         <f t="shared" si="0"/>
         <v>8806</v>
       </c>
+      <c r="I7" s="5">
+        <v>4403</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1726,16 +1749,16 @@
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>10</v>
       </c>
       <c r="G8" s="5">
@@ -1745,6 +1768,9 @@
         <f t="shared" si="0"/>
         <v>499.79999999999995</v>
       </c>
+      <c r="I8" s="5">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1753,16 +1779,16 @@
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>3</v>
       </c>
       <c r="G9" s="5">
@@ -1772,6 +1798,9 @@
         <f t="shared" si="0"/>
         <v>39898.32</v>
       </c>
+      <c r="I9" s="5">
+        <v>13299.44</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1786,10 +1815,10 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>4</v>
       </c>
       <c r="G10" s="5">
@@ -1799,6 +1828,9 @@
         <f t="shared" si="0"/>
         <v>7140</v>
       </c>
+      <c r="I10" s="5">
+        <v>1785</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1807,10 +1839,10 @@
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
         <v>0</v>
       </c>
       <c r="G11" s="5">
@@ -1820,6 +1852,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I11" s="5">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1828,10 +1863,10 @@
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
         <v>0</v>
       </c>
       <c r="G12" s="5">
@@ -1841,6 +1876,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I12" s="5">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1849,16 +1887,16 @@
       <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>10</v>
       </c>
       <c r="G13" s="5">
@@ -1868,7 +1906,9 @@
         <f t="shared" si="0"/>
         <v>3302</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="5">
+        <v>330.2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1877,14 +1917,14 @@
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <v>10</v>
       </c>
       <c r="G14" s="5">
@@ -1894,6 +1934,9 @@
         <f t="shared" si="0"/>
         <v>499.79999999999995</v>
       </c>
+      <c r="I14" s="5">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1902,16 +1945,16 @@
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>4</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>10</v>
       </c>
       <c r="G15" s="5">
@@ -1921,24 +1964,27 @@
         <f t="shared" si="0"/>
         <v>4046</v>
       </c>
+      <c r="I15" s="5">
+        <v>404.6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>10</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>10</v>
       </c>
       <c r="G16" s="5">
@@ -1948,18 +1994,21 @@
         <f t="shared" si="0"/>
         <v>702.09999999999991</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>70.209999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
         <v>0</v>
       </c>
       <c r="G17" s="5">
@@ -1969,18 +2018,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="5">
+        <v>49.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="5">
@@ -1990,24 +2042,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>49.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>10</v>
       </c>
       <c r="G19" s="5">
@@ -2017,24 +2072,27 @@
         <f t="shared" si="0"/>
         <v>404.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>40.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>2</v>
       </c>
       <c r="G20" s="5">
@@ -2044,24 +2102,27 @@
         <f t="shared" si="0"/>
         <v>35700</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="5">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>1</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
       <c r="G21" s="5">
@@ -2071,24 +2132,27 @@
         <f t="shared" si="0"/>
         <v>11424</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>1</v>
       </c>
       <c r="G22" s="5">
@@ -2098,24 +2162,27 @@
         <f t="shared" si="0"/>
         <v>38250</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>1</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>5</v>
       </c>
       <c r="G23" s="5">
@@ -2125,24 +2192,27 @@
         <f t="shared" si="0"/>
         <v>3689</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="I23" s="5">
+        <v>737.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>5</v>
       </c>
       <c r="G24" s="5">
@@ -2152,8 +2222,11 @@
         <f t="shared" si="0"/>
         <v>5950</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2166,10 +2239,10 @@
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>4</v>
       </c>
       <c r="G25" s="5">
@@ -2179,8 +2252,11 @@
         <f t="shared" si="0"/>
         <v>2998.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <v>749.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G26" s="8" t="s">
         <v>16</v>
       </c>
@@ -2188,23 +2264,27 @@
         <f>SUM(H3:H25)</f>
         <v>492724.41999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="I26" s="32">
+        <f>SUM(I3:I25)</f>
+        <v>230275.29000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2216,12 +2296,12 @@
       <c r="D29" s="6">
         <v>11500</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="21">
         <f>SUM(D29+C29)</f>
         <v>51398.32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -2233,12 +2313,12 @@
       <c r="D30" s="6">
         <v>13000</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <f t="shared" ref="E30:E31" si="1">SUM(D30+C30)</f>
         <v>106250</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,12 +2330,12 @@
       <c r="D31" s="6">
         <v>11900</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <f t="shared" si="1"/>
         <v>371476.09999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,7 +2345,7 @@
         <v>492724.41999999993</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="23">
+      <c r="E32" s="21">
         <f>SUM(E29:E31)</f>
         <v>529124.41999999993</v>
       </c>
@@ -2320,36 +2400,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2357,16 +2437,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>0</v>
       </c>
       <c r="F3" s="7">
@@ -2386,10 +2466,10 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>4</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -2410,10 +2490,10 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="5">
@@ -2425,8 +2505,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
@@ -2456,169 +2536,169 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="113.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" style="25" customWidth="1"/>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1"/>
